--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.3years</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132745701410919</v>
+        <v>0.256928881312197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.189794933706545</v>
+        <v>0.205011680561919</v>
       </c>
       <c r="F2" t="n">
-        <v>1.14195956269819</v>
+        <v>1.29295317035662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.787216188611848</v>
+        <v>0.865113979442616</v>
       </c>
       <c r="H2" t="n">
-        <v>1.65656100789467</v>
+        <v>1.9323787852929</v>
       </c>
       <c r="I2" t="n">
-        <v>0.699416463961921</v>
+        <v>1.25324020859679</v>
       </c>
       <c r="J2" t="n">
-        <v>0.484291801710748</v>
+        <v>0.210118300922242</v>
       </c>
       <c r="K2" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L2" t="n">
         <v>115</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.193399534020999</v>
+        <v>0.201234418477267</v>
       </c>
       <c r="E3" t="n">
-        <v>0.266750346971755</v>
+        <v>0.206883415752133</v>
       </c>
       <c r="F3" t="n">
-        <v>1.21336747827619</v>
+        <v>1.22291141125608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.719332812384068</v>
+        <v>0.81525276200303</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04670301700661</v>
+        <v>1.83441552053863</v>
       </c>
       <c r="I3" t="n">
-        <v>0.725020740240974</v>
+        <v>0.972694779548522</v>
       </c>
       <c r="J3" t="n">
-        <v>0.468439306750145</v>
+        <v>0.330705020614303</v>
       </c>
       <c r="K3" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L3" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="n">
-        <v>-0.129025409490796</v>
+        <v>-0.415016293511907</v>
       </c>
       <c r="E4" t="n">
-        <v>0.231457695485003</v>
+        <v>0.278206701745752</v>
       </c>
       <c r="F4" t="n">
-        <v>0.878951631548445</v>
+        <v>0.660329521530409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.558398455966148</v>
+        <v>0.382777488373779</v>
       </c>
       <c r="H4" t="n">
-        <v>1.38352096490845</v>
+        <v>1.13913458928074</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.557447049753227</v>
+        <v>-1.49175519823093</v>
       </c>
       <c r="J4" t="n">
-        <v>0.577222027017783</v>
+        <v>0.135763332809262</v>
       </c>
       <c r="K4" t="n">
-        <v>1027</v>
+        <v>493</v>
       </c>
       <c r="L4" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.204373723356894</v>
+        <v>0.36196934292784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.358254107461008</v>
+        <v>0.292494441463305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.815157670792885</v>
+        <v>1.43615491298066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.403914614348796</v>
+        <v>0.809515173025046</v>
       </c>
       <c r="H5" t="n">
-        <v>1.64510518967921</v>
+        <v>2.54787186554027</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.570471403120306</v>
+        <v>1.23752554447518</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5683580125373</v>
+        <v>0.215892036927472</v>
       </c>
       <c r="K5" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L5" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.237313571323117</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.292023722247155</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.2678386132819</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.715300228600254</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.24718892160017</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.812651689722199</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.416417786758067</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.518645007996574</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.399850914176228</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.595326664576008</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.271891334022138</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.3035128126825</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.29709596654314</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.194598169172463</v>
+      </c>
+      <c r="K7" t="n">
+        <v>493</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.109643724433961</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.244058288872441</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.896153355972045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.555438175889808</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.44586899547085</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.449252205038885</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.653249731750069</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L8" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.250465326909837</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.24976087104817</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.28462304730306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.787362930181354</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.09592845993155</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.00282052131989</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.31594746564528</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L9" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.00666446979910148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.331299977447844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.993357688527924</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.518916432272481</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.90157689367485</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.0201161190847067</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.983950741577137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>493</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.0313965789678052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.390911811274651</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.969091175680942</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.450415977363359</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.08504527810089</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0803162709907128</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.93598571764001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L11" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.142597457350568</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.400517430246023</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.1532654696779</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.526019651891625</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.52846303131164</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.356033087656073</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.721815786217517</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.262228624319768</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.449374810239128</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.769335114882511</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.318859965440188</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.85622713147509</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.583540995945516</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.559529167587422</v>
+      </c>
+      <c r="K13" t="n">
+        <v>493</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
